--- a/Carga_Pasaje_AF.xlsx
+++ b/Carga_Pasaje_AF.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A99F92D6-F10C-420A-9A6F-99D62F791A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B37BB0C-794D-4397-AA7D-BCE0E71142A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="C_11" sheetId="1" r:id="rId1"/>
+    <sheet name="C_19" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">C_11!$B$4:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">C_19!$B$4:$G$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -228,7 +228,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -237,7 +237,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>

--- a/Carga_Pasaje_AF.xlsx
+++ b/Carga_Pasaje_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Autotransporte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B37BB0C-794D-4397-AA7D-BCE0E71142A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C6789D-30FA-4C6F-B495-5CF2570C899B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_19" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Año</t>
   </si>
@@ -56,16 +50,19 @@
     <t>Pasajeros Transportados (Millones)</t>
   </si>
   <si>
-    <t>Pasajeros-Kilometros transportados (Millones)</t>
-  </si>
-  <si>
     <t>Toneladas transportadas (Miles)</t>
   </si>
   <si>
-    <t>Toneladas-kilometros transportadas (Millones)</t>
-  </si>
-  <si>
-    <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal</t>
+    <t>Actualización: mayo 2024.</t>
+  </si>
+  <si>
+    <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
+  </si>
+  <si>
+    <t>Pasajeros-Kilómetros transportados (Millones)</t>
+  </si>
+  <si>
+    <t>Toneladas-kilómetros transportadas (Millones)</t>
   </si>
 </sst>
 </file>
@@ -501,21 +498,21 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="54" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>4</v>
-      </c>
       <c r="D4" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>7</v>
@@ -625,19 +622,18 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="F12" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E13" s="2"/>
-      <c r="F13" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="F13" s="3"/>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G18" s="2"/>

--- a/Carga_Pasaje_AF.xlsx
+++ b/Carga_Pasaje_AF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C6789D-30FA-4C6F-B495-5CF2570C899B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC95E44-2E7F-49DF-9F09-DFA17C783695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_19" sheetId="1" r:id="rId1"/>
@@ -523,13 +523,13 @@
         <v>2018</v>
       </c>
       <c r="C5" s="12">
-        <v>3768.3150000000001</v>
+        <v>3773</v>
       </c>
       <c r="D5" s="12">
-        <v>538607.68500000006</v>
+        <v>538603</v>
       </c>
       <c r="E5" s="12">
-        <v>556411</v>
+        <v>556.41099999999994</v>
       </c>
       <c r="F5" s="6">
         <v>260642</v>
@@ -540,13 +540,13 @@
         <v>2019</v>
       </c>
       <c r="C6" s="4">
-        <v>3744.3470000000002</v>
+        <v>3749</v>
       </c>
       <c r="D6" s="4">
-        <v>535703.65300000005</v>
+        <v>535699</v>
       </c>
       <c r="E6" s="4">
-        <v>552318</v>
+        <v>552.31799999999998</v>
       </c>
       <c r="F6" s="5">
         <v>258684</v>
@@ -557,13 +557,13 @@
         <v>2020</v>
       </c>
       <c r="C7" s="12">
-        <v>2274.1729999999998</v>
+        <v>2277</v>
       </c>
       <c r="D7" s="12">
-        <v>326500.82699999999</v>
+        <v>326498</v>
       </c>
       <c r="E7" s="12">
-        <v>512726</v>
+        <v>512.726</v>
       </c>
       <c r="F7" s="6">
         <v>240394</v>
@@ -574,13 +574,13 @@
         <v>2021</v>
       </c>
       <c r="C8" s="4">
-        <v>3143.0949999999998</v>
+        <v>3147</v>
       </c>
       <c r="D8" s="4">
-        <v>450379.90500000003</v>
+        <v>450376</v>
       </c>
       <c r="E8" s="4">
-        <v>534469</v>
+        <v>534.46900000000005</v>
       </c>
       <c r="F8" s="5">
         <v>250350</v>
@@ -591,13 +591,13 @@
         <v>2022</v>
       </c>
       <c r="C9" s="12">
-        <v>3604.3504478427526</v>
+        <v>3674</v>
       </c>
       <c r="D9" s="12">
-        <v>524031.64955215721</v>
+        <v>523961.99999999994</v>
       </c>
       <c r="E9" s="12">
-        <v>548159</v>
+        <v>548.15899999999999</v>
       </c>
       <c r="F9" s="6">
         <v>256388.00000000003</v>
@@ -608,13 +608,13 @@
         <v>2023</v>
       </c>
       <c r="C10" s="7">
-        <v>3780.3025498027173</v>
+        <v>3784.9999999999995</v>
       </c>
       <c r="D10" s="7">
-        <v>540441.69745019719</v>
+        <v>540437</v>
       </c>
       <c r="E10" s="7">
-        <v>565727</v>
+        <v>565.72699999999998</v>
       </c>
       <c r="F10" s="8">
         <v>264850</v>

--- a/Carga_Pasaje_AF.xlsx
+++ b/Carga_Pasaje_AF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC95E44-2E7F-49DF-9F09-DFA17C783695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C14660B-7561-4814-A618-051D6633D663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_19" sheetId="1" r:id="rId1"/>

--- a/Carga_Pasaje_AF.xlsx
+++ b/Carga_Pasaje_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C14660B-7561-4814-A618-051D6633D663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDFE9B2-0FF7-426B-A782-1D97D2DFDBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_19" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Toneladas transportadas (Miles)</t>
   </si>
   <si>
-    <t>Actualización: mayo 2024.</t>
-  </si>
-  <si>
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Toneladas-kilómetros transportadas (Millones)</t>
+  </si>
+  <si>
+    <t>Actualización: Mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -76,33 +76,33 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -110,7 +110,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -259,7 +259,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -267,28 +267,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -297,14 +297,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -481,27 +481,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="4" width="18.296875" customWidth="1"/>
-    <col min="5" max="5" width="18.3984375" customWidth="1"/>
-    <col min="6" max="6" width="18.296875" customWidth="1"/>
-    <col min="7" max="7" width="7.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.19921875" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="7.875" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,16 +509,16 @@
         <v>2</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>2018</v>
       </c>
@@ -535,7 +535,7 @@
         <v>260642</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>2019</v>
       </c>
@@ -552,7 +552,7 @@
         <v>258684</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>2020</v>
       </c>
@@ -569,7 +569,7 @@
         <v>240394</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>2021</v>
       </c>
@@ -586,7 +586,7 @@
         <v>250350</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>2022</v>
       </c>
@@ -603,7 +603,7 @@
         <v>256388.00000000003</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="13">
         <v>2023</v>
       </c>
@@ -620,22 +620,22 @@
         <v>264850</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="2"/>
     </row>
   </sheetData>

--- a/Carga_Pasaje_AF.xlsx
+++ b/Carga_Pasaje_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDFE9B2-0FF7-426B-A782-1D97D2DFDBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292B9DD4-AD7A-4B12-B984-7618A4A58992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_19" sheetId="1" r:id="rId1"/>
@@ -72,19 +72,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
@@ -100,18 +94,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -209,35 +219,37 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -485,161 +497,165 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
-    <col min="6" max="6" width="18.25" customWidth="1"/>
-    <col min="7" max="7" width="7.875" customWidth="1"/>
-    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="7" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="18.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11" style="2"/>
+    <col min="9" max="9" width="21.5" style="2" customWidth="1"/>
+    <col min="10" max="13" width="11" style="2"/>
+    <col min="14" max="14" width="8.875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:6" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="5">
         <v>2018</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>3773</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="6">
         <v>538603</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="6">
         <v>556.41099999999994</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>260642</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="8">
         <v>2019</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="9">
         <v>3749</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="9">
         <v>535699</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="9">
         <v>552.31799999999998</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="10">
         <v>258684</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="5">
         <v>2020</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="6">
         <v>2277</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="6">
         <v>326498</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="6">
         <v>512.726</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>240394</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="8">
         <v>2021</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="9">
         <v>3147</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="9">
         <v>450376</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="9">
         <v>534.46900000000005</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="10">
         <v>250350</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="5">
         <v>2022</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>3674</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="6">
         <v>523961.99999999994</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="6">
         <v>548.15899999999999</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>256388.00000000003</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="11">
         <v>2023</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="12">
         <v>3784.9999999999995</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="12">
         <v>540437</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="12">
         <v>565.72699999999998</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="13">
         <v>264850</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="2"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G18" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Carga_Pasaje_AF.xlsx
+++ b/Carga_Pasaje_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292B9DD4-AD7A-4B12-B984-7618A4A58992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB20748-3D36-4ABD-B466-ACD6D58230B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_19" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <t>Toneladas-kilómetros transportadas (Millones)</t>
   </si>
   <si>
-    <t>Actualización: Mayo 2024.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -72,7 +72,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,15 +241,15 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -491,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:G18"/>
+  <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
@@ -512,12 +512,12 @@
     <col min="15" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:6" ht="18">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6" ht="66">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -534,7 +534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6">
       <c r="B5" s="5">
         <v>2018</v>
       </c>
@@ -545,13 +545,13 @@
         <v>538603</v>
       </c>
       <c r="E5" s="6">
-        <v>556.41099999999994</v>
+        <v>556411</v>
       </c>
       <c r="F5" s="7">
         <v>260642</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6">
       <c r="B6" s="8">
         <v>2019</v>
       </c>
@@ -562,13 +562,13 @@
         <v>535699</v>
       </c>
       <c r="E6" s="9">
-        <v>552.31799999999998</v>
+        <v>552318</v>
       </c>
       <c r="F6" s="10">
         <v>258684</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:6">
       <c r="B7" s="5">
         <v>2020</v>
       </c>
@@ -579,13 +579,13 @@
         <v>326498</v>
       </c>
       <c r="E7" s="6">
-        <v>512.726</v>
+        <v>512726</v>
       </c>
       <c r="F7" s="7">
         <v>240394</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:6">
       <c r="B8" s="8">
         <v>2021</v>
       </c>
@@ -596,13 +596,13 @@
         <v>450376</v>
       </c>
       <c r="E8" s="9">
-        <v>534.46900000000005</v>
+        <v>534469</v>
       </c>
       <c r="F8" s="10">
         <v>250350</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:6">
       <c r="B9" s="5">
         <v>2022</v>
       </c>
@@ -610,49 +610,66 @@
         <v>3674</v>
       </c>
       <c r="D9" s="6">
-        <v>523961.99999999994</v>
+        <v>523962</v>
       </c>
       <c r="E9" s="6">
-        <v>548.15899999999999</v>
+        <v>548159</v>
       </c>
       <c r="F9" s="7">
-        <v>256388.00000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="11">
+        <v>256388</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="8">
         <v>2023</v>
       </c>
-      <c r="C10" s="12">
-        <v>3784.9999999999995</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="C10" s="9">
+        <v>3785</v>
+      </c>
+      <c r="D10" s="9">
         <v>540437</v>
       </c>
-      <c r="E10" s="12">
-        <v>565.72699999999998</v>
-      </c>
-      <c r="F10" s="13">
+      <c r="E10" s="9">
+        <v>565727</v>
+      </c>
+      <c r="F10" s="10">
         <v>264850</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:6">
+      <c r="B11" s="13">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="14">
+        <v>3824</v>
+      </c>
+      <c r="D11" s="14">
+        <v>546138</v>
+      </c>
+      <c r="E11" s="14">
+        <v>572028</v>
+      </c>
+      <c r="F11" s="15">
+        <v>267754</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="2:6">
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="E13" s="1"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G18" s="1"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="E14" s="1"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
